--- a/MyCustomUiWidget/CommonDefine/ColorDefine.xlsx
+++ b/MyCustomUiWidget/CommonDefine/ColorDefine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\MyCustomUIWidget\MyCustomUiWidget\CommonDefine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8996AA03-4451-40A9-B4A3-43207EC904E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41437B45-0C6C-491D-999F-B8E6A18D4E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2505" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="6135" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,52 +46,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
     <t>92, 184, 92</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>217, 83, 79</t>
   </si>
   <si>
     <t>91, 192, 222</t>
   </si>
   <si>
-    <t>Disabled</t>
-  </si>
-  <si>
-    <t>White</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
-    <t>ToolTipsNormal</t>
-  </si>
-  <si>
-    <t>ToolTipsInfo</t>
-  </si>
-  <si>
-    <t>HoverBackground</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>240, 240, 240</t>
   </si>
   <si>
     <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disabled_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover_background_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tooltips_info_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tooltips_normal_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white_color</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +579,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,10 +608,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D2" s="13"/>
     </row>
@@ -618,34 +626,34 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9">
         <v>51122183</v>
@@ -654,16 +662,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9">
         <v>236246255</v>
@@ -672,7 +680,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9">
         <v>197245251</v>
@@ -681,7 +689,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" s="9">
         <v>255255255</v>

--- a/MyCustomUiWidget/CommonDefine/ColorDefine.xlsx
+++ b/MyCustomUiWidget/CommonDefine/ColorDefine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\MyCustomUIWidget\MyCustomUiWidget\CommonDefine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41437B45-0C6C-491D-999F-B8E6A18D4E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D28C09-6CE2-4955-B0F2-7E3FC0DA22BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="6135" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="3315" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,11 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>命名空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>颜色枚举</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,129 +572,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>153153153</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>51122183</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="9">
-        <v>153153153</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9">
-        <v>51122183</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>236246255</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>197245251</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9">
-        <v>236246255</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>255255255</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9">
-        <v>197245251</v>
-      </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9">
-        <v>255255255</v>
-      </c>
-      <c r="D11" s="11"/>
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MyCustomUiWidget/CommonDefine/ColorDefine.xlsx
+++ b/MyCustomUiWidget/CommonDefine/ColorDefine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\MyCustomUIWidget\MyCustomUiWidget\CommonDefine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D28C09-6CE2-4955-B0F2-7E3FC0DA22BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD70D1E-6DB9-456A-9C7A-791AB02AEC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="3315" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="3495" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>颜色枚举</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>white_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>242,165,80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5F5FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2A550"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -278,6 +292,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -286,6 +301,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF2A550"/>
       <color rgb="FFC5F5FB"/>
       <color rgb="FFE6E6E6"/>
       <color rgb="FFF0F0F0"/>
@@ -295,7 +311,6 @@
       <color rgb="FFF0AD4E"/>
       <color rgb="FFFAB758"/>
       <color rgb="FF5BC0DE"/>
-      <color rgb="FF65CAE8"/>
     </mruColors>
   </colors>
   <extLst>
@@ -572,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,6 +703,15 @@
       </c>
       <c r="C11" s="11"/>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
